--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYLLEE\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katte\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2B09DF7-B1A9-493A-8317-8D2BF9F0EED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDB8C6A-0BCC-461C-B3B4-627FF33626BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{18A83059-B30D-4E29-9BD7-CEFAC97186B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{18A83059-B30D-4E29-9BD7-CEFAC97186B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendario" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
     <t>Simulacro Presentación Final</t>
   </si>
   <si>
-    <t>Calendario de Actividades</t>
+    <t>Calendario reuniones de seguimiento</t>
   </si>
 </sst>
 </file>
@@ -127,7 +127,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-C0A]d\-mmm;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -160,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -183,34 +183,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -235,6 +269,18 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -551,243 +597,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120AEB7F-2919-4006-AB8B-E5C2FFA704C0}">
-  <dimension ref="A2:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.08984375" style="3" customWidth="1"/>
-    <col min="2" max="3" width="14.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="10.90625" style="3"/>
+    <col min="1" max="1" width="36.140625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="14.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B3" s="5">
         <v>44630</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C3" s="6">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B4" s="7">
         <v>44637</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C4" s="8">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B5" s="7">
         <v>44651</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C5" s="8">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B6" s="7">
         <v>44665</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C6" s="8">
         <v>12</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C7" s="8">
         <v>14</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C8" s="8">
         <v>16</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C9" s="8">
         <v>17</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C10" s="8">
         <v>18</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>4</v>
+      </c>
       <c r="B16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="B17" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="B18" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16" t="s">
-        <v>22</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A14:D14"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
